--- a/casos_teste.xlsx
+++ b/casos_teste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENAI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENAI\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48819F2E-ECF8-4C51-821D-1B8C3517FCFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59736E51-EE59-4D17-80FF-AAF59A5C7CBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{25048384-0BCD-412C-A8BA-130B71CE7DA7}"/>
   </bookViews>
@@ -25,22 +25,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
-  <si>
-    <t>oi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+  <si>
+    <t>ARQUIVO</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>ENTRADA</t>
+  </si>
+  <si>
+    <t>SAÍDA</t>
+  </si>
+  <si>
+    <t>test/test_juros_composto.py</t>
+  </si>
+  <si>
+    <t>FUNÇÕES</t>
+  </si>
+  <si>
+    <t>ValueError("A taxa de juros não pode ser negativa.")</t>
+  </si>
+  <si>
+    <t>test_validar_tempo</t>
+  </si>
+  <si>
+    <t>test_validar_tempo_negativo</t>
+  </si>
+  <si>
+    <t>ValueError("O tempo deve ser um número (int ou float). ")</t>
+  </si>
+  <si>
+    <t>ValueError("A taxa de juros deve ser um número (int ou float).")</t>
+  </si>
+  <si>
+    <t>ValueError("O tempo não pode ser negativo".)</t>
+  </si>
+  <si>
+    <t>test_validar_capital</t>
+  </si>
+  <si>
+    <t>"oi", 10, 3</t>
+  </si>
+  <si>
+    <t>ValueError("O capital investido deve ser um número (int ou float)</t>
+  </si>
+  <si>
+    <t>test_validar_taxa</t>
+  </si>
+  <si>
+    <t>Verificar se a taxa é int ou float</t>
+  </si>
+  <si>
+    <t>Verificar se o capital é int ou float</t>
+  </si>
+  <si>
+    <t>1000, "oi", 3</t>
+  </si>
+  <si>
+    <t>Verificar se o tempo é int ou float</t>
+  </si>
+  <si>
+    <t>1000, 10, "oi"</t>
+  </si>
+  <si>
+    <t>test_validar_capital_negativo</t>
+  </si>
+  <si>
+    <t>Verificar se o capital é um valor negativo</t>
+  </si>
+  <si>
+    <t>-1000, 10, 3</t>
+  </si>
+  <si>
+    <t>ValueError("O capital investido não pode ser negativo.")</t>
+  </si>
+  <si>
+    <t>test_validar_taxa_negativo</t>
+  </si>
+  <si>
+    <t>Verificar se a taxa é um valor negativo</t>
+  </si>
+  <si>
+    <t>1000, -10, 3</t>
+  </si>
+  <si>
+    <t>Verificar se o tempo é um valor negativo</t>
+  </si>
+  <si>
+    <t>1000, 10, -3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,13 +156,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -80,6 +207,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E83D65B8-6913-4B8A-99BE-B39E69C5ADCF}" name="Tabela1" displayName="Tabela1" ref="A1:E7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="6">
+  <autoFilter ref="A1:E7" xr:uid="{282DB2F4-7C26-4E76-9228-BD5084A72F2A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7DA9DDFD-9242-4709-8056-0B577C549521}" name="ARQUIVO" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{28C1C433-D0B8-4557-8754-8097C387A4D9}" name="FUNÇÕES" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F8FA499C-AE68-40D7-A60F-6E27F4D96818}" name="DESCRIÇÃO" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F17D2B2C-17F9-44E6-88A0-FF9A8AC1275F}" name="ENTRADA" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{354785B9-C914-41F5-8F6E-FFE2B2CC5C8E}" name="SAÍDA" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,29 +520,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50736AB0-61D1-4463-AA49-32EE1D811A0E}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/casos_teste.xlsx
+++ b/casos_teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENAI\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59736E51-EE59-4D17-80FF-AAF59A5C7CBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCDDDD5-1D5B-4FC2-A67D-A63383D72461}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{25048384-0BCD-412C-A8BA-130B71CE7DA7}"/>
   </bookViews>
